--- a/src/Tests/Samples.ScrubbingWithoutFormatDontScrubDateTimes.Net4_8.verified.xlsx
+++ b/src/Tests/Samples.ScrubbingWithoutFormatDontScrubDateTimes.Net4_8.verified.xlsx
@@ -3,11 +3,6 @@
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\VerifyTests\Verify.ClosedXml\src\Tests\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3597B5CE-47A8-4CF6-8D23-C2FF5C732E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13996" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -395,7 +390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
